--- a/Matrix_UI담당.xlsx
+++ b/Matrix_UI담당.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A10757E-0DD4-47D4-A992-21ED55C92E74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2308AF54-01F3-442D-AA9D-E16089FA32BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +291,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +326,25 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -450,8 +484,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,8 +510,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,8 +599,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="40% - 강조색1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - 강조색5" xfId="5" builtinId="47"/>
+    <cellStyle name="계산" xfId="3" builtinId="22"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -857,14 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -906,7 +975,7 @@
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
     </row>
-    <row r="2" spans="1:12" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -916,9 +985,9 @@
       <c r="E2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -928,9 +997,9 @@
       <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -940,9 +1009,9 @@
       <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -955,9 +1024,9 @@
       <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -967,9 +1036,9 @@
       <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -979,9 +1048,9 @@
       <c r="E7" s="5">
         <v>5</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1013,9 +1082,9 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1025,9 +1094,9 @@
       <c r="E11" s="5">
         <v>5</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1037,9 +1106,9 @@
       <c r="E12" s="5">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1067,9 +1136,9 @@
       <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1079,9 +1148,9 @@
       <c r="E15" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1176,7 @@
       </c>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1122,7 +1191,7 @@
       </c>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1158,9 +1227,9 @@
       <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1193,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1240,7 +1309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1254,7 +1323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -1284,17 +1353,8 @@
       <c r="G31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="F32"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B32" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="찬영"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B32" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}"/>
   <sortState ref="A2:B31">
     <sortCondition ref="A1"/>
   </sortState>
@@ -1303,7 +1363,7 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F14 F10 F21">
+  <conditionalFormatting sqref="F10 F14 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Matrix_UI담당.xlsx
+++ b/Matrix_UI담당.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2308AF54-01F3-442D-AA9D-E16089FA32BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{963C3F29-278C-4A49-A380-83BDAED2B481}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>dailyTaskAdmin.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manualCSSPlaceModeAdmin.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>manualCSSTaskModeAdmin.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공간별 조회(디폴트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무별 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +199,18 @@
   </si>
   <si>
     <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manualCSSPlaceTaskModeAdmin.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간별, 업무별 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,14 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -308,8 +304,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,11 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -344,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -363,37 +370,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -500,120 +476,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - 강조색1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - 강조색5" xfId="5" builtinId="47"/>
-    <cellStyle name="계산" xfId="3" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="40% - 강조색1" xfId="3" builtinId="31"/>
+    <cellStyle name="40% - 강조색5" xfId="4" builtinId="47"/>
+    <cellStyle name="계산" xfId="2" builtinId="22"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -933,425 +902,434 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="9" customWidth="1"/>
-    <col min="8" max="9" width="6.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="9" customWidth="1"/>
-    <col min="11" max="12" width="6.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="32.125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="4" customWidth="1"/>
+    <col min="8" max="9" width="6.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="4" customWidth="1"/>
+    <col min="11" max="12" width="6.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" thickTop="1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="27">
         <v>4</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="27">
         <v>4</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="27">
         <v>2</v>
       </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="27">
         <v>2</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="27">
         <v>5</v>
       </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="27">
         <v>5</v>
       </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="27">
         <v>5</v>
       </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="27">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="E14" s="26">
         <v>0</v>
       </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="27">
         <v>3</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2</v>
+      </c>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="E19" s="25">
         <v>2</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="26">
         <v>3</v>
       </c>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="B24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="B26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="B28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="27">
         <v>1</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="B29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="27">
         <v>1</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="B30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="27">
         <v>1</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="18" thickBot="1">
+      <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="B31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" s="27">
         <v>1</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="G31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B32" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}"/>
@@ -1363,49 +1341,29 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F10 F14 F21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F10 F21">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF717F44-47B2-4F4A-AC65-BB2AD2866A4A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF717F44-47B2-4F4A-AC65-BB2AD2866A4A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
+          <x14:cfRule type="iconSet" priority="1" id="{995DD1B8-FEF5-4880-8E8B-91D98EB809B8}">
+            <x14:iconSet iconSet="3Stars" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Stars" iconId="2"/>
+              <x14:cfIcon iconSet="3Stars" iconId="1"/>
+              <x14:cfIcon iconSet="3Stars" iconId="0"/>
+            </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F10 F21</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Matrix_UI담당.xlsx
+++ b/Matrix_UI담당.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{963C3F29-278C-4A49-A380-83BDAED2B481}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4644BE12-26A9-4819-A1F9-7C2B8E864C7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>dailyTaskAdmin.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manualCSSTaskModeAdmin.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무배정 다음페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무별 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +203,14 @@
   </si>
   <si>
     <t>공간별, 업무별 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼으로 페이지이동 /jsp include형식 바뀔 가능성있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for loop로 아코디언 +- 구현 보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,15 +301,6 @@
       <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -426,19 +417,6 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -475,6 +453,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -483,7 +472,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -493,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,16 +513,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -545,10 +531,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,26 +555,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -896,13 +879,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -910,13 +894,13 @@
     <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="32.125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="4" customWidth="1"/>
-    <col min="8" max="9" width="6.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="4" customWidth="1"/>
-    <col min="11" max="12" width="6.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="18.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="4" customWidth="1"/>
+    <col min="11" max="12" width="18.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="21" thickBot="1">
@@ -924,177 +908,177 @@
         <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickTop="1">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="21">
         <v>4</v>
       </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="21">
         <v>4</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="27">
+        <v>31</v>
+      </c>
+      <c r="E5" s="21">
         <v>2</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="21">
         <v>5</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="21">
         <v>5</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="B8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="20">
         <v>1</v>
       </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="B11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="21">
         <v>5</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" hidden="1" thickTop="1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="21">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" thickTop="1">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="25">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1102,238 +1086,234 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="26">
+        <v>33</v>
+      </c>
+      <c r="E14" s="20">
         <v>0</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="27">
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="21">
         <v>3</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="27">
+      <c r="B16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="25">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="25">
+    </row>
+    <row r="19" spans="1:10" hidden="1">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" s="21" customFormat="1">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="20">
         <v>2</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="27" spans="1:10" hidden="1">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="26">
-        <v>3</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:10" hidden="1">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="27">
+    </row>
+    <row r="29" spans="1:10" hidden="1">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="21">
         <v>1</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="27">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>21</v>
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="18" hidden="1" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="27">
+      <c r="D30"/>
+      <c r="E30" s="21">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="18" thickBot="1">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31" s="27">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1"/>
+    <row r="40" spans="7:7">
+      <c r="G40"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B32" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}"/>
-  <sortState ref="A2:B31">
+  <autoFilter ref="B1:B31" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="연진"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="2">
@@ -1363,7 +1343,7 @@
               <x14:cfIcon iconSet="3Stars" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Matrix_UI담당.xlsx
+++ b/Matrix_UI담당.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4644BE12-26A9-4819-A1F9-7C2B8E864C7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF15BC58-0BD1-49D1-A9AB-9B7E76E9C0AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>dailyTaskAdmin.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>for loop로 아코디언 +- 구현 보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼 토글 기능 구현중 by 태훈. 대분류는 검색 안됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,14 +553,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,22 +883,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="49.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="11" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="4" customWidth="1"/>
@@ -919,18 +922,18 @@
       <c r="F1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" hidden="1" thickTop="1">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" thickTop="1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -942,7 +945,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -954,34 +957,37 @@
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="20">
         <v>2</v>
       </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" hidden="1" thickTop="1">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>26</v>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>2</v>
       </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="18" hidden="1" thickTop="1">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -993,7 +999,7 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1011,7 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1045,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1057,7 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="18" hidden="1" thickTop="1">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1069,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:12" ht="18" thickTop="1">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1084,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1099,7 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1111,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1139,7 @@
       <c r="G17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
@@ -1153,7 +1159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="18" hidden="1" thickBot="1">
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1301,18 +1307,11 @@
       <c r="G30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" hidden="1"/>
     <row r="40" spans="7:7">
       <c r="G40"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B31" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="연진"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B31" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}"/>
   <sortState ref="A2:B30">
     <sortCondition ref="A1"/>
   </sortState>

--- a/Matrix_UI담당.xlsx
+++ b/Matrix_UI담당.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF15BC58-0BD1-49D1-A9AB-9B7E76E9C0AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{333315AF-ECB7-4AB1-A45B-F7B57F74E8FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -889,7 +889,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1311,7 +1311,7 @@
       <c r="G40"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B31" xr:uid="{1CF7C134-B50B-47C0-A513-2161359A7144}"/>
+  <autoFilter ref="E1:E40" xr:uid="{4E9B581E-22B2-48DD-B820-20BA3E3CDC0D}"/>
   <sortState ref="A2:B30">
     <sortCondition ref="A1"/>
   </sortState>
